--- a/Optimized Measured Luminosity.xlsx
+++ b/Optimized Measured Luminosity.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.212085213908604E+38</v>
+        <v>4.212085213875517E+38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -534,7 +534,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.995988508007625E+38</v>
+        <v>3.995988506260692E+38</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -542,7 +542,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.69123380851587E+38</v>
+        <v>4.691233808393829E+38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -550,7 +550,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.131600600707134E+38</v>
+        <v>4.131597530251903E+38</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -558,7 +558,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.488316924043554E+38</v>
+        <v>4.488313413924035E+38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -566,7 +566,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.259799390577469E+38</v>
+        <v>4.122703681752183E+38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -574,7 +574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.019964483854382E+38</v>
+        <v>4.244875936288429E+38</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -582,7 +582,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.24598111542031E+38</v>
+        <v>4.180514064393406E+38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.16858557055523E+38</v>
+        <v>4.292409344417789E+38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -598,7 +598,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.292409344417789E+38</v>
+        <v>3.322900680311815E+38</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -606,7 +606,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.32290409679701E+38</v>
+        <v>4.469286546967391E+38</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -614,7 +614,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.469286546570685E+38</v>
+        <v>4.558647252060692E+38</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -622,7 +622,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.558647177546312E+38</v>
+        <v>4.393369662296641E+38</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -630,7 +630,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.388570977994921E+38</v>
+        <v>4.644994931598981E+38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -638,7 +638,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.644994931598981E+38</v>
+        <v>4.750286177553337E+38</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -646,7 +646,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.577948167829055E+38</v>
+        <v>4.637195479523727E+38</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -654,7 +654,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.750286177553337E+38</v>
+        <v>5.053521740074341E+38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -662,7 +662,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.63719597588458E+38</v>
+        <v>4.722734413770183E+38</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -670,7 +670,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.053521741808792E+38</v>
+        <v>4.827645528272535E+38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -678,7 +678,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.722734413770183E+38</v>
+        <v>4.809483705446859E+38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -686,7 +686,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.827645560555141E+38</v>
+        <v>5.054863736494675E+38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -694,7 +694,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.809483896464732E+38</v>
+        <v>4.9485357194596E+38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -702,7 +702,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.054863736494675E+38</v>
+        <v>4.997171906058153E+38</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -710,7 +710,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.9485357194596E+38</v>
+        <v>4.801100750796471E+38</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -718,7 +718,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.576777559219637E+38</v>
+        <v>4.622033061892037E+38</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -726,31 +726,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.399461330461054E+38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>4.801103626477428E+38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>4.622033087400076E+38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>4.778243171998457E+38</v>
+        <v>4.810816519184841E+38</v>
       </c>
     </row>
   </sheetData>
@@ -759,6 +735,608 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.82159374492538E+38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.012669423496659E+38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.603192231180802E+38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.295973151168591E+38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5.307284080169154E+38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4.569766105855239E+38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5.539164153948383E+38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.438811372277464E+38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5.439517236329457E+38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5.46104040734367E+38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5.705478541527674E+38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.511652802509122E+38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5.821751915947996E+38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5.730520861666785E+38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5.496123345002315E+38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>6.333394077033647E+38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2.186566325119281E+38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2.610748064771572E+38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2.870762609803814E+38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3.669909537248472E+38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>3.750515490738215E+38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3.294316396548855E+38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3.601524120782392E+38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3.181030907495877E+38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3.552732366683316E+38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3.480499497876173E+38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3.447225169107464E+38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2.591155355509737E+38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2.629980201996079E+38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2.680132134385576E+38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2.98044339497098E+38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>3.417519853697402E+38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2.631203572871879E+38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2.798477930990353E+38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3.089297597900685E+38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3.981040379701618E+38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>4.169433401598125E+38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>4.283798897977163E+38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>4.042917388607334E+38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>4.056783909642225E+38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>4.072254815595846E+38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>4.177840483640904E+38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>4.240912783530766E+38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>4.794961955313974E+38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>5.05681319976557E+38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>5.072906774033487E+38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>4.876717203470811E+38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>5.265674940840515E+38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>5.797787106550731E+38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>4.717133610441326E+38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>5.207478213030638E+38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>5.479616937468114E+38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>5.328732503524618E+38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>5.487454762350611E+38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>5.566585326107308E+38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>5.738183200003641E+38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>5.676047775622107E+38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>6.054277493003645E+38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>6.088548236109426E+38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>6.085291337548886E+38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>6.089400931736088E+38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>6.199226465074436E+38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>6.012588181821297E+38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>6.126368914435575E+38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>6.086900299400032E+38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>6.199046882889849E+38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>5.99620841561013E+38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>6.131729155281275E+38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>6.052015150361869E+38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>6.169081477677332E+38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>6.283409453029225E+38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>6.236377404197666E+38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>5.978751495440485E+38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B84"/>
   <sheetViews>
@@ -776,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.709844718955908E+38</v>
+        <v>5.018957205938177E+38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -784,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.012659194815423E+38</v>
+        <v>4.205343070234727E+38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -792,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.603192231180802E+38</v>
+        <v>5.447984818402686E+38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -800,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.295973304151927E+38</v>
+        <v>5.379039027581266E+38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -808,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.307283968428261E+38</v>
+        <v>5.583622303555003E+38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -816,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.569766447966604E+38</v>
+        <v>5.567800482155715E+38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -824,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.539816707164775E+38</v>
+        <v>5.354885749148073E+38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -832,7 +1410,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.72040168994571E+37</v>
+        <v>5.638714386648481E+38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -840,7 +1418,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.438427083346446E+38</v>
+        <v>6.068543664433695E+38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -848,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.461040504326816E+38</v>
+        <v>5.878504996186018E+38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -856,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.70295526204968E+38</v>
+        <v>5.533845543270563E+38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -864,7 +1442,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.501676598323873E+38</v>
+        <v>2.234373978591069E+38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -872,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.821752129700876E+38</v>
+        <v>5.119557222334381E+38</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -880,7 +1458,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.718910680992733E+38</v>
+        <v>5.418512530323137E+38</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -888,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.175595025603545E+38</v>
+        <v>5.310454603715001E+38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -896,7 +1474,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.496124164798618E+38</v>
+        <v>2.292986472521058E+38</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -904,7 +1482,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.284547512129163E+38</v>
+        <v>5.18506378816481E+38</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -912,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.186566150357808E+38</v>
+        <v>5.461388122829655E+38</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -920,7 +1498,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.610743747062113E+38</v>
+        <v>5.687215910130678E+38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -928,7 +1506,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.870767841285249E+38</v>
+        <v>5.543532421390893E+38</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -936,7 +1514,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.669914493292778E+38</v>
+        <v>5.490546190322134E+38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -944,7 +1522,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.75051543997239E+38</v>
+        <v>5.480670222550614E+38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -952,7 +1530,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.294316888980237E+38</v>
+        <v>2.801311232944551E+38</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -960,7 +1538,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.601524535509268E+38</v>
+        <v>5.54575868736946E+38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -968,7 +1546,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.181029640989148E+38</v>
+        <v>5.452298041636176E+38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -976,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.084806872101259E+38</v>
+        <v>5.490424144144578E+38</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -984,7 +1562,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.552735995052704E+38</v>
+        <v>5.243299897427939E+38</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -992,7 +1570,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.480499829886535E+38</v>
+        <v>5.242050043825102E+38</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1000,7 +1578,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.447224680222501E+38</v>
+        <v>5.442124200127557E+38</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1008,7 +1586,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.59116460863995E+38</v>
+        <v>5.263544114599531E+38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1016,7 +1594,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.629979076013691E+38</v>
+        <v>5.072642350735341E+38</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1024,7 +1602,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.680134628129824E+38</v>
+        <v>5.480967253145824E+38</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1032,7 +1610,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.980442784902292E+38</v>
+        <v>5.786484167765847E+38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1040,7 +1618,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.417520373983989E+38</v>
+        <v>1.045137895675093E+36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1048,7 +1626,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.631204131014603E+38</v>
+        <v>1.187228485019133E+36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1056,7 +1634,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.531986384300214E+38</v>
+        <v>2.256179523960427E+38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1064,7 +1642,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.667388559738756E+38</v>
+        <v>5.26915286160788E+38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1072,7 +1650,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.089297343751474E+38</v>
+        <v>2.25202265297279E+38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1080,7 +1658,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.707938724626447E+38</v>
+        <v>5.593658179304453E+38</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1088,7 +1666,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.149884530319193E+38</v>
+        <v>5.516671831291632E+38</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1096,7 +1674,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.981041516151437E+38</v>
+        <v>5.506126435570919E+38</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1104,7 +1682,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.169429938546916E+38</v>
+        <v>4.492310748658353E+38</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1112,7 +1690,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.283799037881019E+38</v>
+        <v>4.629687083275819E+38</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1120,7 +1698,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.042917932102158E+38</v>
+        <v>5.002510614266564E+38</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1128,7 +1706,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.056783593175108E+38</v>
+        <v>6.051226229333892E+38</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1136,7 +1714,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.07225455449633E+38</v>
+        <v>5.129391122140212E+38</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1144,7 +1722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.177838765554164E+38</v>
+        <v>2.059086994684803E+38</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1152,7 +1730,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.240916204507186E+38</v>
+        <v>4.838638874209854E+38</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1160,7 +1738,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.794962053804191E+38</v>
+        <v>5.086604550753233E+38</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1168,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.056813185844135E+38</v>
+        <v>5.425486296530631E+38</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1176,7 +1754,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.040059905305992E+38</v>
+        <v>5.353962525573698E+38</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1184,7 +1762,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.841082871690641E+38</v>
+        <v>5.27067528276672E+38</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1192,7 +1770,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.26567507636918E+38</v>
+        <v>4.891495627436681E+38</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1200,7 +1778,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.79762343123634E+38</v>
+        <v>5.126344335003334E+38</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1208,7 +1786,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.676628699006148E+38</v>
+        <v>5.201850656961902E+38</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1216,7 +1794,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.717133493774555E+38</v>
+        <v>5.14753985671069E+38</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1224,7 +1802,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.169790947265799E+38</v>
+        <v>5.028316997619714E+38</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1232,7 +1810,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.431435348000036E+38</v>
+        <v>5.210398198060574E+38</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1240,7 +1818,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.328733230802519E+38</v>
+        <v>5.266022827927125E+38</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1248,7 +1826,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.468484666817623E+38</v>
+        <v>5.260115931775398E+38</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1256,7 +1834,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.469841721905749E+38</v>
+        <v>5.442367013218561E+38</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1264,7 +1842,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.461096579809598E+38</v>
+        <v>5.503983402391562E+38</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1272,7 +1850,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.809835677706855E+38</v>
+        <v>5.3951498136438E+38</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1280,7 +1858,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.704044216125208E+38</v>
+        <v>5.344052998700013E+38</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1288,7 +1866,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.676047775622107E+38</v>
+        <v>5.215952756801007E+38</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1296,7 +1874,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.054277482541339E+38</v>
+        <v>4.971020687937909E+38</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1304,7 +1882,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6.059316937727783E+38</v>
+        <v>5.14037815558901E+38</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1312,7 +1890,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.010378396345763E+38</v>
+        <v>5.086282583484065E+38</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1320,7 +1898,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6.089400710729994E+38</v>
+        <v>5.113478590226045E+38</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1328,7 +1906,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6.269528158398921E+38</v>
+        <v>5.151781106374676E+38</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1336,7 +1914,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.199226462695879E+38</v>
+        <v>5.568304552280066E+38</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1344,7 +1922,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.91434409747226E+38</v>
+        <v>4.988335985509247E+38</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1352,7 +1930,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6.12637133307908E+38</v>
+        <v>5.29247907363172E+38</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1360,7 +1938,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.070538845247838E+38</v>
+        <v>4.90962467601299E+38</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1368,7 +1946,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6.194513836135208E+38</v>
+        <v>4.803794746556496E+38</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1376,7 +1954,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.99620841678778E+38</v>
+        <v>5.062871859227004E+38</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1384,7 +1962,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.454518049091774E+38</v>
+        <v>4.685731708450402E+38</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1392,7 +1970,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.131729155281275E+38</v>
+        <v>5.208637923121141E+38</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1400,7 +1978,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.947561372993652E+38</v>
+        <v>5.108451329135283E+38</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1408,7 +1986,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.169081477677332E+38</v>
+        <v>4.90422293376517E+38</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1416,7 +1994,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.283409453029225E+38</v>
+        <v>5.425059698483786E+38</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1424,7 +2002,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.236377404197666E+38</v>
+        <v>5.399193432897707E+38</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1432,745 +2010,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.978751495440485E+38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5.018957205938177E+38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>4.20534491327645E+38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>5.4478647924833E+38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5.379039717337532E+38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5.349380878770799E+38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5.567800482155715E+38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5.354601670275393E+38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5.638714386648481E+38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6.068488172311653E+38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5.878473069962599E+38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5.533845543270563E+38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2.025850527380283E+38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2.798686286245355E+38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4.177918020834852E+38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>4.949385250537346E+38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>5.418512608192893E+38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>5.310455432997809E+38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>2.292992898975734E+38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>5.183473612506331E+38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>5.403407438113325E+38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>5.687215910130678E+38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>5.527216984960826E+38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>5.490546340025209E+38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>5.480695059314838E+38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>2.071741832448268E+38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>5.545758687518648E+38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>5.448324414149809E+38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>5.468719599760776E+38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>5.243299967496539E+38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>5.208191644292537E+38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>5.442124207566669E+38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>5.263544114599531E+38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>5.072642351670304E+38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5.480967253145824E+38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>5.181721609671996E+38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>4.69808839815227E+35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>1.045137895675093E+36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>1.187228492673279E+36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>2.256179523960427E+38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>2.019012581652914E+38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>5.264882656940855E+38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>1.998746649519499E+38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>5.355518975127244E+38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>5.515892675688843E+38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>5.500376394453026E+38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>4.490785053433935E+38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>4.629687083275819E+38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>4.985367915990921E+38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>5.170168424330918E+38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>5.129391122140212E+38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>4.612289519798643E+38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>1.964348473936264E+38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>4.831234760372653E+38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>5.086604548995696E+38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>5.425486296530631E+38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>5.353962525573698E+38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>5.270675291227466E+38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>4.891495628776232E+38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>5.126344332003537E+38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>5.195383607404588E+38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>5.147539918019841E+38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>5.02831699770456E+38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>5.210019528429266E+38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>5.25955600492986E+38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>5.267766927692806E+38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>5.442369260106008E+38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>5.504006301322912E+38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>5.355868412429844E+38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>5.338193101712122E+38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>5.205772787462257E+38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>3.150764122682909E+38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>4.967469464965189E+38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>5.140378021136607E+38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>5.086285284297637E+38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>5.036695660006436E+38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>5.231903282197763E+38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>5.151781523729543E+38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>5.568304771595022E+38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>4.988335985509247E+38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>4.715241318007363E+38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>4.90962467601299E+38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>4.803794749473775E+38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>5.062871859227004E+38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>4.685731931772196E+38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>5.208637923121141E+38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>5.108451329135283E+38</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>4.870392978254395E+38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>5.202567054959598E+38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>5.399193432897707E+38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>4.487126963507989E+38</v>
+        <v>4.487126960937406E+38</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.997981850240881E+40</v>
+        <v>1.871322914795155E+40</v>
       </c>
     </row>
   </sheetData>
@@ -2222,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.861389964714366E+40</v>
+        <v>3.414322708413151E+40</v>
       </c>
     </row>
   </sheetData>
@@ -2248,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.26251720250682E+40</v>
+        <v>4.08818528734729E+40</v>
       </c>
     </row>
   </sheetData>
